--- a/biology/Médecine/Hypertension_intracrânienne_idiopathique/Hypertension_intracrânienne_idiopathique.xlsx
+++ b/biology/Médecine/Hypertension_intracrânienne_idiopathique/Hypertension_intracrânienne_idiopathique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hypertension_intracr%C3%A2nienne_idiopathique</t>
+          <t>Hypertension_intracrânienne_idiopathique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hypertension intracrânienne idiopathique est une maladie consistant en une hypertension intracrânienne sans cause retrouvée.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hypertension_intracr%C3%A2nienne_idiopathique</t>
+          <t>Hypertension_intracrânienne_idiopathique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Clinique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est celle des hypertensions intracrâniennes : céphalées, nausées ou vomissements. Il peut exister des acouphènes de type pulsatile.
 À un stade plus avancé, les signes oculaires apparaissent, avec parfois une paralysie oculomotrice, une vision floue pouvant révéler un œdème papillaire.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hypertension_intracr%C3%A2nienne_idiopathique</t>
+          <t>Hypertension_intracrânienne_idiopathique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Examens complémentaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La prise de la pression intracrânienne montre des niveaux élevés.
 Le scanner crânien et l'IRM sont faits essentiellement pour confirmer le caractère idiopathique de l'hypertension intracrânienne.
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hypertension_intracr%C3%A2nienne_idiopathique</t>
+          <t>Hypertension_intracrânienne_idiopathique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,11 +591,13 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les corticoïdes sont efficaces mais comportent des risques à long terme. 
-La baisse de poids permet d'améliorer les signes ophtalmologiques, notamment l'œdème papillaire[1]. Dans les formes résistantes, la décompression chirurgicale du nerf optique peut avoir un intérêt[2].
-L'acétazolamide permet une discrète amélioration de la vision[3]. 
+La baisse de poids permet d'améliorer les signes ophtalmologiques, notamment l'œdème papillaire. Dans les formes résistantes, la décompression chirurgicale du nerf optique peut avoir un intérêt.
+L'acétazolamide permet une discrète amélioration de la vision. 
 </t>
         </is>
       </c>
